--- a/Course_Requirements/Activity Logs&Task Summaries/Jesse/Activity Log SummaryWk7.xlsx
+++ b/Course_Requirements/Activity Logs&Task Summaries/Jesse/Activity Log SummaryWk7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\Documents\GitHub\CSC3600-ICT-Professional-Project\Course_Requirements\Activity Logs&amp;Task Summaries\Jesse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199A8212-C005-4C93-8D28-D1F52413D21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF4ADB8-6C99-4963-ACB5-F05FE0C738B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43530" yWindow="105" windowWidth="14565" windowHeight="11385" xr2:uid="{2C90FF03-35F6-430D-80AA-644AEA31AD14}"/>
+    <workbookView xWindow="28785" yWindow="600" windowWidth="14565" windowHeight="11385" xr2:uid="{2C90FF03-35F6-430D-80AA-644AEA31AD14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
